--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EC49C1-362C-964F-9A31-5949324EECC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB28F76-C0B3-F24E-8E5B-98D16CC18E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25280" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="7620" yWindow="8620" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="WebInformation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>樂透彩卷開講</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>當日股市查詢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -442,13 +438,137 @@
   <si>
     <t>fig/AiCity-945-WebInformation-305.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kingnet.net.tw/smartlife/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1968.freeway.gov.tw/n_speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com.tw/maps/search/%E5%8A%A0%E6%B2%B9%E7%AB%99/@25.0545584,121.2689707,13.54z?hl=zh-TW&amp;authuser=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://towingnet.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.thsrc.com.tw/ArticleContent/a3b630bb-1066-4352-a1ef-58c7b4e8ef7c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tycg.youbike.com.tw/station/map?_id=5cb7e421083e7b42664b87e2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.metro.taipei/</t>
+  </si>
+  <si>
+    <t>https://ebus.gov.taipei/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tymetro.com.tw/tymetro-new/tw/_pages/travel-guide/timetable-search.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ebus.tycg.gov.tw/NewTaoyuan/Dybus.aspx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透彩卷開獎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://lotto2.arclink.com.tw/649/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.stock.yahoo.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.etax.nat.gov.tw/etw-main/web/ETW183W1/</t>
+  </si>
+  <si>
+    <t>https://tw.live/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cwb.gov.tw/V8/C/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://easymap.land.moi.gov.tw/P02/Index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://market.591.com.tw/?refid=4&amp;gclid=Cj0KCQiAw_H-BRD-ARIsALQE_2NR1hr1mPPAfoyWGVaAIM_FL5036x8H5Fq_33pSGv66m97xxieLO_caAvlxEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.twfood.cc/vege?page=2</t>
+  </si>
+  <si>
+    <t>https://www.post.gov.tw/post/internet/SearchZone/index.jsp?ID=130107</t>
+  </si>
+  <si>
+    <t>https://www.post.gov.tw/post/internet/Postal/index.jsp?ID=207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.exchange-rates.org/converter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fast.com/zh/tw/#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bli.gov.tw/0014162.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://movies.yahoo.com.tw/showtimes</t>
+  </si>
+  <si>
+    <t>https://kan.sogou.com/top/dianshiju/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiwan.net.tw/m1.aspx?sNo=0000064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiwan.net.tw/m1.aspx?sNo=0000108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://event.moc.gov.tw/mp.asp?mp=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.taiwan.net.tw/m1.aspx?sNo=0000104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://epark.tycg.gov.tw/public/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mvdis.gov.tw/m3-emv-fee/fee/fuelFee</t>
+  </si>
+  <si>
+    <t>https://www.railway.gov.tw/tra-tip-web/tip/tip001/tip112/gobytime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,6 +596,22 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,19 +630,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -824,7 +966,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -855,7 +997,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -864,12 +1006,15 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -878,12 +1023,15 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -892,12 +1040,15 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -906,12 +1057,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -920,12 +1074,15 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -934,12 +1091,15 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -948,12 +1108,15 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -962,12 +1125,15 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -976,12 +1142,15 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -990,12 +1159,15 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1004,305 +1176,397 @@
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>105</v>
+      <c r="E33" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1C51CEDA-D414-424C-942E-160CD9EC8669}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{67541C96-061F-A543-9F3C-A2B08B9F2C14}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F01CF9BF-7883-0B4A-93F3-04D286AFF4AC}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{03E54E41-DAE9-C748-B6E1-32F4991D617B}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{75B31A33-6D1C-D340-BA21-CE4F75092B72}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{58B1372C-61AB-304A-8065-F70B79F8BC35}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{EA2C3DE6-C17F-654D-ADFB-F56423EB3E83}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{A7A276FB-72D6-BB45-95B5-4B7D162FEC61}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{43FCEF3E-7979-3143-8FF4-27DDECE7AD0F}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{6060DC05-DC7B-2F40-BA55-3EEC99EAB890}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
+    <hyperlink ref="E23" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
+    <hyperlink ref="E31" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB28F76-C0B3-F24E-8E5B-98D16CC18E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78174D6A-D47C-8040-A97B-5B143F9E299D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="8620" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="7620" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="WebInformation" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.kingnet.net.tw/smartlife/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://1968.freeway.gov.tw/n_speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,6 +558,10 @@
   </si>
   <si>
     <t>https://www.railway.gov.tw/tra-tip-web/tip/tip001/tip112/gobytime</t>
+  </si>
+  <si>
+    <t>https://m.gas.goodlife.tw/gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1009,7 +1009,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1026,7 +1026,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1111,7 +1111,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1451,7 +1451,7 @@
         <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1502,7 +1502,7 @@
         <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1519,7 +1519,7 @@
         <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78174D6A-D47C-8040-A97B-5B143F9E299D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECD761-4638-6C48-89ED-047CADD36762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -444,10 +444,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.google.com.tw/maps/search/%E5%8A%A0%E6%B2%B9%E7%AB%99/@25.0545584,121.2689707,13.54z?hl=zh-TW&amp;authuser=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://towingnet.com.tw/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -561,6 +557,10 @@
   </si>
   <si>
     <t>https://m.gas.goodlife.tw/gas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1KjxHpFnLbtTVEeJhan-_xLJSaLTb1tKw&amp;usp=sharing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +966,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1009,7 +1009,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1111,7 +1111,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1190,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1349,7 +1349,7 @@
         <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>97</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>98</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1451,7 +1451,7 @@
         <v>99</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1502,7 +1502,7 @@
         <v>102</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1519,7 +1519,7 @@
         <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECD761-4638-6C48-89ED-047CADD36762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAC167-E7B1-FD41-8A2B-718F62F5CF1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="19680" yWindow="7220" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="WebInformation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -561,6 +561,22 @@
   </si>
   <si>
     <t>https://www.google.com/maps/d/edit?mid=1KjxHpFnLbtTVEeJhan-_xLJSaLTb1tKw&amp;usp=sharing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空氣品質監測</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-309.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://airtw.epa.gov.tw/CHT/EnvMonitoring/Local/LocalMonitoring.aspx?Type=EPB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -960,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1269,273 +1285,290 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1555,17 +1588,18 @@
     <hyperlink ref="E14" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
-    <hyperlink ref="E25" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
-    <hyperlink ref="E28" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
-    <hyperlink ref="E30" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
-    <hyperlink ref="E32" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
+    <hyperlink ref="E28" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
+    <hyperlink ref="E29" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
+    <hyperlink ref="E32" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
+    <hyperlink ref="E33" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+    <hyperlink ref="E18" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAC167-E7B1-FD41-8A2B-718F62F5CF1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F21D5E-6CF4-7240-A889-F9747EB19762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="7220" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="14960" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="WebInformation" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>樂透彩卷開獎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://lotto2.arclink.com.tw/649/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -577,6 +573,10 @@
   </si>
   <si>
     <t>https://airtw.epa.gov.tw/CHT/EnvMonitoring/Local/LocalMonitoring.aspx?Type=EPB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂透彩劵開獎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +979,10 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1025,7 +1025,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1229,7 +1229,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1246,7 +1246,7 @@
         <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1263,7 +1263,7 @@
         <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1280,24 +1280,24 @@
         <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1314,7 +1314,7 @@
         <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1331,7 +1331,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1348,7 +1348,7 @@
         <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1365,7 +1365,7 @@
         <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1382,7 +1382,7 @@
         <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1399,7 +1399,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1416,7 +1416,7 @@
         <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1433,7 +1433,7 @@
         <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1450,7 +1450,7 @@
         <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1467,7 +1467,7 @@
         <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1484,7 +1484,7 @@
         <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1501,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1518,7 +1518,7 @@
         <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1535,7 +1535,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1552,7 +1552,7 @@
         <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1569,7 +1569,7 @@
         <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F21D5E-6CF4-7240-A889-F9747EB19762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B2CDDF-BBC7-9F4D-BE6F-58156B6A5F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
+    <workbookView xWindow="6980" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
   <sheets>
     <sheet name="WebInformation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -577,6 +577,159 @@
   </si>
   <si>
     <t>樂透彩劵開獎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路購物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>PCHome 24h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yahoo奇摩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮24小時</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客來電商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDN買東西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活市集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinkoi 品設計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>森森購物網</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-701.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOMO購物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-702.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-704.png</t>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-709.png</t>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-710.png</t>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-703.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-705.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂天市場</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-706.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-707.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-708.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.u-mall.com.tw/B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rakuten.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.buy123.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pinkoi.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopping.udn.com/mall/Cc1a00.do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.books.com.tw/?loc=tw_website_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shopee.tw/m/topshop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.mall.yahoo.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://24h.pchome.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.momoshop.com.tw/main/Main.jsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -976,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1570,6 +1723,176 @@
       </c>
       <c r="E34" s="1" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1600,6 +1923,16 @@
     <hyperlink ref="E32" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
     <hyperlink ref="E33" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
     <hyperlink ref="E18" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
+    <hyperlink ref="E44" r:id="rId26" xr:uid="{8B6092AE-274A-8C41-9649-5FB427EDAEB8}"/>
+    <hyperlink ref="E43" r:id="rId27" xr:uid="{8063A06C-1BF1-2743-9B92-693472C90537}"/>
+    <hyperlink ref="E42" r:id="rId28" xr:uid="{18113417-A0A8-4048-95B7-0CA2236A7F99}"/>
+    <hyperlink ref="E40" r:id="rId29" xr:uid="{9AE1C39F-6313-DF41-9A0B-BF3394548CE4}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{5F42C395-DC82-8747-B9F5-DF4B9A52F1ED}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{BF1840C1-B643-E44B-90C0-033E74A1B957}"/>
+    <hyperlink ref="E38" r:id="rId32" xr:uid="{FBF2D399-99D4-0149-A1F8-BF91FCEC85B8}"/>
+    <hyperlink ref="E37" r:id="rId33" xr:uid="{BDF72F52-0157-A94C-9E2C-87FB1FB44DFE}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{00BD5368-E8E6-5945-8DAE-11656BEBFA84}"/>
+    <hyperlink ref="E36" r:id="rId35" xr:uid="{D9C52C61-9995-7D43-8C96-5ACEBDAE4BC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B2CDDF-BBC7-9F4D-BE6F-58156B6A5F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F148D31-B1CC-5E4D-A155-F11D99410336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6980" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -1132,10 +1132,10 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1166,773 +1166,773 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>172</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>125</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>97</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>170</v>
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>177</v>
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1C51CEDA-D414-424C-942E-160CD9EC8669}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{67541C96-061F-A543-9F3C-A2B08B9F2C14}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{F01CF9BF-7883-0B4A-93F3-04D286AFF4AC}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{03E54E41-DAE9-C748-B6E1-32F4991D617B}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{75B31A33-6D1C-D340-BA21-CE4F75092B72}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{58B1372C-61AB-304A-8065-F70B79F8BC35}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{EA2C3DE6-C17F-654D-ADFB-F56423EB3E83}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{A7A276FB-72D6-BB45-95B5-4B7D162FEC61}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{43FCEF3E-7979-3143-8FF4-27DDECE7AD0F}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{6060DC05-DC7B-2F40-BA55-3EEC99EAB890}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
-    <hyperlink ref="E19" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
-    <hyperlink ref="E28" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
-    <hyperlink ref="E29" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
-    <hyperlink ref="E30" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
-    <hyperlink ref="E31" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
-    <hyperlink ref="E32" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
-    <hyperlink ref="E33" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
-    <hyperlink ref="E18" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
-    <hyperlink ref="E44" r:id="rId26" xr:uid="{8B6092AE-274A-8C41-9649-5FB427EDAEB8}"/>
-    <hyperlink ref="E43" r:id="rId27" xr:uid="{8063A06C-1BF1-2743-9B92-693472C90537}"/>
-    <hyperlink ref="E42" r:id="rId28" xr:uid="{18113417-A0A8-4048-95B7-0CA2236A7F99}"/>
-    <hyperlink ref="E40" r:id="rId29" xr:uid="{9AE1C39F-6313-DF41-9A0B-BF3394548CE4}"/>
-    <hyperlink ref="E41" r:id="rId30" xr:uid="{5F42C395-DC82-8747-B9F5-DF4B9A52F1ED}"/>
-    <hyperlink ref="E39" r:id="rId31" xr:uid="{BF1840C1-B643-E44B-90C0-033E74A1B957}"/>
-    <hyperlink ref="E38" r:id="rId32" xr:uid="{FBF2D399-99D4-0149-A1F8-BF91FCEC85B8}"/>
-    <hyperlink ref="E37" r:id="rId33" xr:uid="{BDF72F52-0157-A94C-9E2C-87FB1FB44DFE}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{00BD5368-E8E6-5945-8DAE-11656BEBFA84}"/>
-    <hyperlink ref="E36" r:id="rId35" xr:uid="{D9C52C61-9995-7D43-8C96-5ACEBDAE4BC8}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{1C51CEDA-D414-424C-942E-160CD9EC8669}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{67541C96-061F-A543-9F3C-A2B08B9F2C14}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{F01CF9BF-7883-0B4A-93F3-04D286AFF4AC}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{03E54E41-DAE9-C748-B6E1-32F4991D617B}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{75B31A33-6D1C-D340-BA21-CE4F75092B72}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{58B1372C-61AB-304A-8065-F70B79F8BC35}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{EA2C3DE6-C17F-654D-ADFB-F56423EB3E83}"/>
+    <hyperlink ref="E19" r:id="rId8" xr:uid="{A7A276FB-72D6-BB45-95B5-4B7D162FEC61}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{43FCEF3E-7979-3143-8FF4-27DDECE7AD0F}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{6060DC05-DC7B-2F40-BA55-3EEC99EAB890}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
+    <hyperlink ref="E26" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
+    <hyperlink ref="E27" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
+    <hyperlink ref="E29" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
+    <hyperlink ref="E33" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
+    <hyperlink ref="E35" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
+    <hyperlink ref="E36" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
+    <hyperlink ref="E38" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
+    <hyperlink ref="E39" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
+    <hyperlink ref="E40" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
+    <hyperlink ref="E41" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
+    <hyperlink ref="E42" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
+    <hyperlink ref="E43" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+    <hyperlink ref="E28" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
+    <hyperlink ref="E11" r:id="rId26" xr:uid="{94C5DFE6-8F4B-6841-A57B-E53111AE6D88}"/>
+    <hyperlink ref="E10" r:id="rId27" xr:uid="{2D22FC3D-1826-5746-88D8-00FDF6194CA0}"/>
+    <hyperlink ref="E9" r:id="rId28" xr:uid="{890B96D0-02FA-994F-B5B8-751630AF0B46}"/>
+    <hyperlink ref="E7" r:id="rId29" xr:uid="{F70A5569-5FE3-B145-BCCD-FBF8ACFDC559}"/>
+    <hyperlink ref="E8" r:id="rId30" xr:uid="{A2E8A9DB-3719-2740-AD87-A89918B85D4A}"/>
+    <hyperlink ref="E6" r:id="rId31" xr:uid="{C634DFCB-7D29-C148-90CF-F9B0F068A688}"/>
+    <hyperlink ref="E5" r:id="rId32" xr:uid="{D071A216-0FFE-7D44-8C28-2714AA127F9D}"/>
+    <hyperlink ref="E4" r:id="rId33" xr:uid="{145A02B5-7DAF-294C-88F5-A7F8F65CBCB8}"/>
+    <hyperlink ref="E2" r:id="rId34" xr:uid="{BD154CF7-89B8-2C4A-A064-C9073DC27809}"/>
+    <hyperlink ref="E3" r:id="rId35" xr:uid="{288F3A02-0A24-984B-82BA-797EF14E9790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F148D31-B1CC-5E4D-A155-F11D99410336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D20A74-ED8F-1D40-8AA6-A52CC3DAC902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6980" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="188">
   <si>
     <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -730,6 +730,21 @@
   </si>
   <si>
     <t>https://www.momoshop.com.tw/main/Main.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位換算查詢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://toolbxs.com/zh-TW/converter/unit</t>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-310.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1129,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DE116E-B8D7-5E43-9774-EEEA2D0B8455}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD55"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1676,222 +1691,239 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1912,16 +1944,16 @@
     <hyperlink ref="E26" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
     <hyperlink ref="E27" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
     <hyperlink ref="E29" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
-    <hyperlink ref="E33" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
-    <hyperlink ref="E35" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
-    <hyperlink ref="E36" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
-    <hyperlink ref="E38" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
-    <hyperlink ref="E39" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
-    <hyperlink ref="E40" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
-    <hyperlink ref="E41" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
-    <hyperlink ref="E42" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
-    <hyperlink ref="E43" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+    <hyperlink ref="E34" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
+    <hyperlink ref="E35" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
+    <hyperlink ref="E36" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
+    <hyperlink ref="E37" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
+    <hyperlink ref="E39" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
+    <hyperlink ref="E40" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
+    <hyperlink ref="E41" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
+    <hyperlink ref="E42" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
+    <hyperlink ref="E43" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
+    <hyperlink ref="E44" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
     <hyperlink ref="E28" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
     <hyperlink ref="E11" r:id="rId26" xr:uid="{94C5DFE6-8F4B-6841-A57B-E53111AE6D88}"/>
     <hyperlink ref="E10" r:id="rId27" xr:uid="{2D22FC3D-1826-5746-88D8-00FDF6194CA0}"/>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D20A74-ED8F-1D40-8AA6-A52CC3DAC902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F5E4C5-4014-084C-9F48-D3846A69F8CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6980" yWindow="2840" windowWidth="35200" windowHeight="25960" xr2:uid="{A01EA9A5-FBAB-A246-BC21-01B3691F2043}"/>
   </bookViews>
@@ -740,11 +740,11 @@
     <t>https://toolbxs.com/zh-TW/converter/unit</t>
   </si>
   <si>
-    <t>fig/AiCity-945-WebInformation-310.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>310</t>
+    <t>406</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-406.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1147,10 +1147,10 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -1181,790 +1181,793 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>179</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>170</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>178</v>
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>142</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>187</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>185</v>
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>144</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E45">
+    <sortCondition ref="A2:A45"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{1C51CEDA-D414-424C-942E-160CD9EC8669}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{67541C96-061F-A543-9F3C-A2B08B9F2C14}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{F01CF9BF-7883-0B4A-93F3-04D286AFF4AC}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{03E54E41-DAE9-C748-B6E1-32F4991D617B}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{75B31A33-6D1C-D340-BA21-CE4F75092B72}"/>
-    <hyperlink ref="E22" r:id="rId6" xr:uid="{58B1372C-61AB-304A-8065-F70B79F8BC35}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{EA2C3DE6-C17F-654D-ADFB-F56423EB3E83}"/>
-    <hyperlink ref="E19" r:id="rId8" xr:uid="{A7A276FB-72D6-BB45-95B5-4B7D162FEC61}"/>
-    <hyperlink ref="E21" r:id="rId9" xr:uid="{43FCEF3E-7979-3143-8FF4-27DDECE7AD0F}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{6060DC05-DC7B-2F40-BA55-3EEC99EAB890}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
-    <hyperlink ref="E26" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
-    <hyperlink ref="E27" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
-    <hyperlink ref="E29" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
-    <hyperlink ref="E34" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
-    <hyperlink ref="E35" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
-    <hyperlink ref="E36" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
-    <hyperlink ref="E37" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
-    <hyperlink ref="E39" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
-    <hyperlink ref="E40" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
-    <hyperlink ref="E41" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
-    <hyperlink ref="E42" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
-    <hyperlink ref="E43" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
-    <hyperlink ref="E44" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
-    <hyperlink ref="E28" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
-    <hyperlink ref="E11" r:id="rId26" xr:uid="{94C5DFE6-8F4B-6841-A57B-E53111AE6D88}"/>
-    <hyperlink ref="E10" r:id="rId27" xr:uid="{2D22FC3D-1826-5746-88D8-00FDF6194CA0}"/>
-    <hyperlink ref="E9" r:id="rId28" xr:uid="{890B96D0-02FA-994F-B5B8-751630AF0B46}"/>
-    <hyperlink ref="E7" r:id="rId29" xr:uid="{F70A5569-5FE3-B145-BCCD-FBF8ACFDC559}"/>
-    <hyperlink ref="E8" r:id="rId30" xr:uid="{A2E8A9DB-3719-2740-AD87-A89918B85D4A}"/>
-    <hyperlink ref="E6" r:id="rId31" xr:uid="{C634DFCB-7D29-C148-90CF-F9B0F068A688}"/>
-    <hyperlink ref="E5" r:id="rId32" xr:uid="{D071A216-0FFE-7D44-8C28-2714AA127F9D}"/>
-    <hyperlink ref="E4" r:id="rId33" xr:uid="{145A02B5-7DAF-294C-88F5-A7F8F65CBCB8}"/>
-    <hyperlink ref="E2" r:id="rId34" xr:uid="{BD154CF7-89B8-2C4A-A064-C9073DC27809}"/>
-    <hyperlink ref="E3" r:id="rId35" xr:uid="{288F3A02-0A24-984B-82BA-797EF14E9790}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1C51CEDA-D414-424C-942E-160CD9EC8669}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{67541C96-061F-A543-9F3C-A2B08B9F2C14}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F01CF9BF-7883-0B4A-93F3-04D286AFF4AC}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{03E54E41-DAE9-C748-B6E1-32F4991D617B}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{75B31A33-6D1C-D340-BA21-CE4F75092B72}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{58B1372C-61AB-304A-8065-F70B79F8BC35}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{EA2C3DE6-C17F-654D-ADFB-F56423EB3E83}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{A7A276FB-72D6-BB45-95B5-4B7D162FEC61}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{43FCEF3E-7979-3143-8FF4-27DDECE7AD0F}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{6060DC05-DC7B-2F40-BA55-3EEC99EAB890}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{EC4E6658-6B39-A142-B427-1EB5E389E411}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{12377299-8BA0-F84E-B484-63829807D9AC}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{CA2FC4EA-4B7F-3D4B-836D-2E8076CCD4BE}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{DE566C3D-6AE9-874D-962B-A391D79C001A}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{D1C7813C-4DB2-E940-BC18-A2326526A3FF}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{D9AB2998-1D1B-5244-B395-EC1B02E9C66D}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{9B1CE258-7D8F-954D-89C0-5C5CE9D9EEE4}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{80256B44-7553-804C-A00B-FB44F6EB4969}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{9AFB1212-9079-5045-B06B-F76979A0EC39}"/>
+    <hyperlink ref="E30" r:id="rId20" xr:uid="{72734FC6-15BC-4F40-ABE4-DC3AACDF21F0}"/>
+    <hyperlink ref="E31" r:id="rId21" xr:uid="{99893AE8-6B40-9842-915B-0652EAF7295E}"/>
+    <hyperlink ref="E32" r:id="rId22" xr:uid="{2BB771B4-745E-2043-9F91-7BCCDB5919C5}"/>
+    <hyperlink ref="E33" r:id="rId23" xr:uid="{9079434A-6510-DA45-97C4-B5DA55CEFC6D}"/>
+    <hyperlink ref="E34" r:id="rId24" xr:uid="{3A651CE2-FBE9-EB45-A80B-094ED5A9FB7C}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{FC957643-7DDC-6547-A578-53484AA1D704}"/>
+    <hyperlink ref="E45" r:id="rId26" xr:uid="{94C5DFE6-8F4B-6841-A57B-E53111AE6D88}"/>
+    <hyperlink ref="E44" r:id="rId27" xr:uid="{2D22FC3D-1826-5746-88D8-00FDF6194CA0}"/>
+    <hyperlink ref="E43" r:id="rId28" xr:uid="{890B96D0-02FA-994F-B5B8-751630AF0B46}"/>
+    <hyperlink ref="E41" r:id="rId29" xr:uid="{F70A5569-5FE3-B145-BCCD-FBF8ACFDC559}"/>
+    <hyperlink ref="E42" r:id="rId30" xr:uid="{A2E8A9DB-3719-2740-AD87-A89918B85D4A}"/>
+    <hyperlink ref="E40" r:id="rId31" xr:uid="{C634DFCB-7D29-C148-90CF-F9B0F068A688}"/>
+    <hyperlink ref="E39" r:id="rId32" xr:uid="{D071A216-0FFE-7D44-8C28-2714AA127F9D}"/>
+    <hyperlink ref="E38" r:id="rId33" xr:uid="{145A02B5-7DAF-294C-88F5-A7F8F65CBCB8}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{BD154CF7-89B8-2C4A-A064-C9073DC27809}"/>
+    <hyperlink ref="E37" r:id="rId35" xr:uid="{288F3A02-0A24-984B-82BA-797EF14E9790}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4664402D-2C40-E64B-9B48-541828DE524C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5AC201-E44C-A748-92B1-A11F70E98932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14220" yWindow="4680" windowWidth="28260" windowHeight="17560" xr2:uid="{2B2AD4FA-9B91-2346-8F8C-40168F957E39}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -848,39 +847,11 @@
     <t>fig/AiCity-945-WebInformation-711.png</t>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>智慧購物</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>開發測試版</t>
-    </r>
+    <t>智慧購物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1262,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -2143,14 +2114,14 @@
       <c r="B50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>207</v>
+      <c r="C50" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>206</v>
+      <c r="E50" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2195,6 +2166,7 @@
     <hyperlink ref="E35" r:id="rId37" xr:uid="{59FCD997-C119-5545-8178-5021D0F65A14}"/>
     <hyperlink ref="E36" r:id="rId38" xr:uid="{9AF90005-FB2C-714E-B429-C60EFCD5BA99}"/>
     <hyperlink ref="E37" r:id="rId39" xr:uid="{17976D58-E4B9-D542-BEBE-3196CAD21665}"/>
+    <hyperlink ref="E50" r:id="rId40" xr:uid="{54FD3CCB-A84B-2248-B979-FA0038E472E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-80-WebInformation.xlsx
+++ b/db/AiCity-80-WebInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5AC201-E44C-A748-92B1-A11F70E98932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E06ED0-9EE8-CB45-A37B-F39E3241B27A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="4680" windowWidth="28260" windowHeight="17560" xr2:uid="{2B2AD4FA-9B91-2346-8F8C-40168F957E39}"/>
+    <workbookView xWindow="22220" yWindow="4820" windowWidth="28260" windowHeight="17560" xr2:uid="{2B2AD4FA-9B91-2346-8F8C-40168F957E39}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="212">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -852,6 +852,22 @@
   </si>
   <si>
     <t>https://tcwang.github.io/SmartShopping/SST-310-BroadbandNetwork.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈞媽線上購物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.chinbp.tw/newshop/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-945-WebInformation-712.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A0CB41-3B89-4349-A7FC-75FA2EC3F206}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16"/>
@@ -2122,6 +2138,23 @@
       </c>
       <c r="E50" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2167,6 +2200,7 @@
     <hyperlink ref="E36" r:id="rId38" xr:uid="{9AF90005-FB2C-714E-B429-C60EFCD5BA99}"/>
     <hyperlink ref="E37" r:id="rId39" xr:uid="{17976D58-E4B9-D542-BEBE-3196CAD21665}"/>
     <hyperlink ref="E50" r:id="rId40" xr:uid="{54FD3CCB-A84B-2248-B979-FA0038E472E8}"/>
+    <hyperlink ref="E51" r:id="rId41" xr:uid="{51EFDEFE-62D8-0D49-A1E4-7AFD2E54E7FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
